--- a/data/trans_camb/P20-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P20-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P20-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P20-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,59</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,68; 12,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,54; 16,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,66; 20,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,68; 14,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,91; 4,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,89; 3,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,91; 11,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 8,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 9,32</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>142,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,75%</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,66; 277,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,21; 96,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,27; 68,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,04; 435,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,56; 306,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,71; 355,19</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 5,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 3,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 5,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,42; 6,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,81; 3,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,15; 2,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,58; 5,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 2,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 3,42</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>116,28%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,45%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,41; 274,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,11; 183,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,72; 263,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,11; 140,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,91; 62,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,62; 44,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,89; 153,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,36; 74,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,99; 90,91</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 4,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 2,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 2,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 4,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,72; 2,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,59; 1,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 3,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 1,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 1,3</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,38%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,7; 136,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,57; 72,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,43; 97,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,84; 60,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,49; 31,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,44; 16,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,05; 68,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,99; 32,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,35; 25,47</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,58</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,04</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,89; 3,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,68; 1,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; 1,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 4,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,11; 1,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,69; -1,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 3,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 0,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,98; -0,37</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,16%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,69%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,34%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,6%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,51%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,77%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,13%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,11; 78,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,63; 24,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,49; 48,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,26; 61,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,27; 21,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,15; -16,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,74; 51,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,98; 12,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,74; -5,54</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 3,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 2,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 3,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 4,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 4,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 2,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 3,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,03; 3,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 2,59</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,11%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,27%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,45%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,46; 89,16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,64; 66,25</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 104,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,93; 74,11</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,95; 85,29</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,7; 39,56</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 61,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 64,75</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,03; 51,16</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 3,12</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 1,69</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,66; 2,8</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 3,63</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 1,65</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,48; 0,02</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,12; 2,94</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 1,39</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 1,03</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,55%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,33%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,82%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,82%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,1%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,44; 84,56</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,04; 45,94</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,09; 78,06</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,11; 54,14</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,37; 24,42</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,7; 0,92</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,64; 53,73</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,09; 25,84</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,56; 19,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P20-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,39</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,97</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,48</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>1,94</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 12,98</t>
+          <t>1,99; 6,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 16,34</t>
+          <t>0,91; 5,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,66; 20,64</t>
+          <t>2,27; 6,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 14,79</t>
+          <t>0,81; 7,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 4,7</t>
+          <t>-2,73; 2,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 3,05</t>
+          <t>-3,13; 1,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 11,26</t>
+          <t>2,25; 6,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 8,45</t>
+          <t>-0,17; 3,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 9,32</t>
+          <t>0,3; 3,61</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>165,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>114,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>180,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>60,65%</t>
+          <t>57,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-23,86%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-33,26%</t>
+          <t>-8,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>142,41%</t>
+          <t>86,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>80,49%</t>
+          <t>30,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>100,75%</t>
+          <t>41,59%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>60,29; 381,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,58; 288,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,83; 410,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 277,25</t>
+          <t>9,11; 134,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-71,21; 96,43</t>
+          <t>-34,05; 52,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,27; 68,0</t>
+          <t>-38,3; 36,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,04; 435,77</t>
+          <t>39,24; 156,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 306,9</t>
+          <t>-3,51; 82,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 355,19</t>
+          <t>6,46; 93,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-0,68</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 5,9</t>
+          <t>0,34; 4,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 3,76</t>
+          <t>-1,19; 2,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 5,54</t>
+          <t>-2,3; 2,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 6,79</t>
+          <t>-1,03; 4,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 3,06</t>
+          <t>-2,72; 2,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 2,29</t>
+          <t>-3,56; 1,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 5,75</t>
+          <t>0,25; 3,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 2,84</t>
+          <t>-1,41; 1,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 3,42</t>
+          <t>-2,71; 0,87</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>116,28%</t>
+          <t>56,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>50,42%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>97,63%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57,53%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>-5,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,75%</t>
+          <t>-14,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>76,29%</t>
+          <t>32,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,45%</t>
+          <t>-11,66%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,41; 274,91</t>
+          <t>3,7; 136,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 183,02</t>
+          <t>-24,57; 72,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,72; 263,91</t>
+          <t>-50,44; 63,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,11; 140,66</t>
+          <t>-11,84; 60,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,91; 62,47</t>
+          <t>-30,49; 31,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,62; 44,88</t>
+          <t>-39,47; 16,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,89; 153,26</t>
+          <t>3,05; 68,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 74,82</t>
+          <t>-21,99; 32,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 90,91</t>
+          <t>-40,43; 16,16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-4,27</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-2,48</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 4,25</t>
+          <t>-1,89; 3,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 2,25</t>
+          <t>-3,68; 1,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,98</t>
+          <t>-3,04; 1,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 4,1</t>
+          <t>-1,62; 4,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,08</t>
+          <t>-4,11; 1,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 1,16</t>
+          <t>-7,59; -1,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,52</t>
+          <t>-1,03; 3,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1,62</t>
+          <t>-3,1; 0,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,3</t>
+          <t>-4,6; -0,68</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>56,05%</t>
+          <t>13,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>-21,69%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>-10,01%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,05%</t>
+          <t>-15,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-15,52%</t>
+          <t>-50,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>32,04%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>-17,77%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-2,38%</t>
+          <t>-35,37%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,7; 136,53</t>
+          <t>-28,11; 78,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,57; 72,38</t>
+          <t>-54,63; 24,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 97,58</t>
+          <t>-44,58; 43,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 60,32</t>
+          <t>-17,26; 61,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,49; 31,8</t>
+          <t>-41,27; 21,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,44; 16,32</t>
+          <t>-78,26; -26,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,05; 68,14</t>
+          <t>-12,74; 51,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,99; 32,15</t>
+          <t>-38,98; 12,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,35; 25,47</t>
+          <t>-60,36; -11,9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>0,93</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 3,31</t>
+          <t>-0,95; 3,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 1,04</t>
+          <t>-1,58; 2,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 1,92</t>
+          <t>-0,03; 3,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 4,4</t>
+          <t>-0,37; 4,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 1,43</t>
+          <t>-0,25; 4,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,69; -1,15</t>
+          <t>-2,5; 1,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,08</t>
+          <t>0,02; 3,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 0,78</t>
+          <t>0,03; 3,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,98; -0,37</t>
+          <t>-0,57; 2,31</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-21,69%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-8,34%</t>
+          <t>43,74%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-15,6%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-42,51%</t>
+          <t>-0,52%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-17,77%</t>
+          <t>27,27%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-29,13%</t>
+          <t>16,46%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 78,05</t>
+          <t>-17,46; 89,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-54,63; 24,48</t>
+          <t>-28,64; 66,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,49; 48,1</t>
+          <t>-0,66; 103,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 61,18</t>
+          <t>-4,93; 74,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,27; 21,18</t>
+          <t>-3,95; 85,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-67,15; -16,6</t>
+          <t>-29,83; 35,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 51,24</t>
+          <t>0,1; 61,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-38,98; 12,29</t>
+          <t>-0,76; 64,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-49,74; -5,54</t>
+          <t>-9,42; 46,56</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>-0,09</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,19</t>
+          <t>0,84; 3,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,48</t>
+          <t>-0,33; 1,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 3,8</t>
+          <t>0,0; 2,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 4,1</t>
+          <t>0,87; 3,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 4,78</t>
+          <t>-0,91; 1,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,22</t>
+          <t>-2,86; -0,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,02; 3,16</t>
+          <t>1,12; 2,94</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,03; 3,26</t>
+          <t>-0,3; 1,39</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 2,59</t>
+          <t>-1,09; 0,76</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>47,55%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>44,11%</t>
+          <t>31,47%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>28,82%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>-19,7%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>27,15%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>27,27%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>-1,64%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 89,16</t>
+          <t>17,44; 84,56</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-28,64; 66,25</t>
+          <t>-7,04; 45,94</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0,35; 104,78</t>
+          <t>0,4; 67,68</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 74,11</t>
+          <t>11,11; 54,14</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 85,29</t>
+          <t>-11,37; 24,42</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-25,7; 39,56</t>
+          <t>-35,66; -3,09</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,1; 61,83</t>
+          <t>17,64; 53,73</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 64,75</t>
+          <t>-5,09; 25,84</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 51,16</t>
+          <t>-18,36; 14,02</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,97</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,67</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,13</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-1,17</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>2,05</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 3,12</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,33; 1,69</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,66; 2,8</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 3,63</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,91; 1,65</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 0,02</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 2,94</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,3; 1,39</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 1,03</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>47,55%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>16,49%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>40,33%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>28,82%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>4,51%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-15,82%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>35,52%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>8,88%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>4,1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>17,44; 84,56</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-7,04; 45,94</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>14,09; 78,06</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>11,11; 54,14</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-11,37; 24,42</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-29,7; 0,92</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>17,64; 53,73</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-5,09; 25,84</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-9,56; 19,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P20-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P20-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,34</t>
+          <t>2,0; 6,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,07</t>
+          <t>0,94; 4,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 6,82</t>
+          <t>2,41; 6,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 7,26</t>
+          <t>0,75; 6,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,9</t>
+          <t>-2,88; 2,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 1,99</t>
+          <t>-2,95; 1,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,05</t>
+          <t>2,17; 6,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 3,21</t>
+          <t>-0,29; 3,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,61</t>
+          <t>0,33; 3,72</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>60,29; 381,9</t>
+          <t>54,24; 368,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,58; 288,35</t>
+          <t>26,65; 280,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>59,83; 410,98</t>
+          <t>68,56; 382,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,11; 134,72</t>
+          <t>6,89; 126,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 52,34</t>
+          <t>-35,36; 47,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,3; 36,14</t>
+          <t>-35,65; 35,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>39,24; 156,61</t>
+          <t>38,36; 158,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 82,04</t>
+          <t>-6,58; 81,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,46; 93,44</t>
+          <t>5,97; 93,36</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 4,25</t>
+          <t>0,15; 4,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 2,25</t>
+          <t>-1,32; 2,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,1</t>
+          <t>-2,46; 2,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 4,1</t>
+          <t>-1,23; 3,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,08</t>
+          <t>-3,09; 1,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 1,2</t>
+          <t>-3,56; 1,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,52</t>
+          <t>0,15; 3,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1,62</t>
+          <t>-1,34; 1,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 0,87</t>
+          <t>-2,92; 0,94</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 136,53</t>
+          <t>2,43; 139,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,57; 72,38</t>
+          <t>-27,29; 79,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,44; 63,6</t>
+          <t>-47,53; 64,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 60,32</t>
+          <t>-14,01; 62,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,49; 31,8</t>
+          <t>-33,51; 28,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,47; 16,55</t>
+          <t>-38,31; 18,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 68,14</t>
+          <t>2,59; 69,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,99; 32,15</t>
+          <t>-20,88; 32,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-40,43; 16,16</t>
+          <t>-43,81; 18,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 3,31</t>
+          <t>-1,54; 3,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 1,04</t>
+          <t>-3,67; 1,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 1,86</t>
+          <t>-3,12; 1,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 4,4</t>
+          <t>-1,65; 4,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 1,43</t>
+          <t>-4,05; 1,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,59; -1,8</t>
+          <t>-7,79; -1,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,08</t>
+          <t>-1,1; 2,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 0,78</t>
+          <t>-3,08; 0,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,6; -0,68</t>
+          <t>-4,74; -0,83</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 78,05</t>
+          <t>-23,9; 81,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,63; 24,48</t>
+          <t>-52,36; 32,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-44,58; 43,74</t>
+          <t>-44,77; 38,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 61,18</t>
+          <t>-17,01; 62,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,27; 21,18</t>
+          <t>-41,24; 19,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-78,26; -26,11</t>
+          <t>-76,03; -26,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 51,24</t>
+          <t>-13,86; 50,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,98; 12,29</t>
+          <t>-38,02; 9,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-60,36; -11,9</t>
+          <t>-61,24; -14,23</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,19</t>
+          <t>-0,93; 3,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,48</t>
+          <t>-1,3; 2,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 3,8</t>
+          <t>0,06; 4,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 4,1</t>
+          <t>-0,19; 4,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 4,78</t>
+          <t>0,22; 4,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,99</t>
+          <t>-2,26; 1,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 3,16</t>
+          <t>-0,23; 3,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,03; 3,26</t>
+          <t>-0,08; 3,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,31</t>
+          <t>-0,56; 2,44</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 89,16</t>
+          <t>-18,38; 81,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,64; 66,25</t>
+          <t>-24,75; 66,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 103,98</t>
+          <t>-0,71; 109,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 74,11</t>
+          <t>-3,47; 80,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 85,29</t>
+          <t>2,27; 84,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,83; 35,13</t>
+          <t>-28,04; 31,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,1; 61,83</t>
+          <t>-3,63; 59,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 64,75</t>
+          <t>-2,1; 65,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 46,56</t>
+          <t>-9,18; 50,14</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,12</t>
+          <t>0,85; 3,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 1,69</t>
+          <t>-0,37; 1,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,51</t>
+          <t>0,06; 2,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,63</t>
+          <t>0,75; 3,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,65</t>
+          <t>-0,9; 1,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,86; -0,25</t>
+          <t>-2,82; -0,18</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,94</t>
+          <t>1,24; 2,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,39</t>
+          <t>-0,29; 1,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 0,76</t>
+          <t>-1,03; 0,79</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>17,44; 84,56</t>
+          <t>18,03; 85,72</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 45,94</t>
+          <t>-8,09; 47,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0,4; 67,68</t>
+          <t>2,06; 66,53</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,11; 54,14</t>
+          <t>9,42; 51,69</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 24,42</t>
+          <t>-11,35; 25,69</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-35,66; -3,09</t>
+          <t>-35,19; -2,68</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>17,64; 53,73</t>
+          <t>19,84; 54,66</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 25,84</t>
+          <t>-4,76; 27,01</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 14,02</t>
+          <t>-16,12; 14,32</t>
         </is>
       </c>
     </row>
